--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Unit Testing" sheetId="4" r:id="rId2"/>
     <sheet name="Validation Testing" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="215">
   <si>
     <t>S.No</t>
   </si>
@@ -335,10 +330,337 @@
     <t>Select Category</t>
   </si>
   <si>
-    <t>Load subjects corresponding to the selected category</t>
-  </si>
-  <si>
     <t>Subjects corresponding to the selected category are loaded</t>
+  </si>
+  <si>
+    <t>Select Category and Subject</t>
+  </si>
+  <si>
+    <t>Quiz set corresponding to selected category and subject appear.</t>
+  </si>
+  <si>
+    <t>Select Quiz set</t>
+  </si>
+  <si>
+    <t>Questions appear</t>
+  </si>
+  <si>
+    <t>Select question and click delete button</t>
+  </si>
+  <si>
+    <t>Should load subjects corresponding to the selected category</t>
+  </si>
+  <si>
+    <t>Should load quiz set corresponding to the selected category and subject</t>
+  </si>
+  <si>
+    <t>Questions of selected set should appear.</t>
+  </si>
+  <si>
+    <t>Selected question shoulde be removed from the database</t>
+  </si>
+  <si>
+    <t>Selected question is removed from the database.</t>
+  </si>
+  <si>
+    <t>View User Details</t>
+  </si>
+  <si>
+    <t>Select user id</t>
+  </si>
+  <si>
+    <t>Details of user corresponding to the selected user id should appear.</t>
+  </si>
+  <si>
+    <t>Details of selected user appears.</t>
+  </si>
+  <si>
+    <t>Click on delete button without selecting the user id</t>
+  </si>
+  <si>
+    <t>Message "Please select the user id you want to delete" should appear.</t>
+  </si>
+  <si>
+    <t>Error message shown.</t>
+  </si>
+  <si>
+    <t>Click on delete button after selecting a user id.</t>
+  </si>
+  <si>
+    <t>Message "Details for the selected user has been deleted" should appear.</t>
+  </si>
+  <si>
+    <t>Message shown.</t>
+  </si>
+  <si>
+    <t>Document Verification</t>
+  </si>
+  <si>
+    <t>Select category</t>
+  </si>
+  <si>
+    <t>Should load the document id's corresponding to the selected category.</t>
+  </si>
+  <si>
+    <t>Document id's for the selected category appears.</t>
+  </si>
+  <si>
+    <t>Select document id</t>
+  </si>
+  <si>
+    <t>Should appear the document details for the selected Id.</t>
+  </si>
+  <si>
+    <t>Document details corresponding to the sleected id appears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on delete button </t>
+  </si>
+  <si>
+    <t>The selected document details must be deleted from the database.</t>
+  </si>
+  <si>
+    <t>Selected document details deleted from the dataase.</t>
+  </si>
+  <si>
+    <t>Update status</t>
+  </si>
+  <si>
+    <t>Should update the database by changing the status to verified and message "Document verified" should appear.</t>
+  </si>
+  <si>
+    <t>Database is updated and messgae shown.</t>
+  </si>
+  <si>
+    <t>View Quiz Report</t>
+  </si>
+  <si>
+    <t>Submit registration request without uploading photo</t>
+  </si>
+  <si>
+    <t>Message "Please upload your photo" should appear.</t>
+  </si>
+  <si>
+    <t>Select Daily report</t>
+  </si>
+  <si>
+    <t>Quiz report of all students based on their rank on that day should appear.</t>
+  </si>
+  <si>
+    <t>Quiz report of all students sorted on the basis of their rank appears</t>
+  </si>
+  <si>
+    <t>Select Department wise option</t>
+  </si>
+  <si>
+    <t>Should load department names</t>
+  </si>
+  <si>
+    <t>Department names appear.</t>
+  </si>
+  <si>
+    <t>Select Department</t>
+  </si>
+  <si>
+    <t>Quiz report for students of selected department appears.</t>
+  </si>
+  <si>
+    <t>Quiz report of students on selected departmnet appears.</t>
+  </si>
+  <si>
+    <t>View student details</t>
+  </si>
+  <si>
+    <t>Select class</t>
+  </si>
+  <si>
+    <t>Should load Student id of students in the selected class.</t>
+  </si>
+  <si>
+    <t>Student id of students in the selected class appears.</t>
+  </si>
+  <si>
+    <t>Select Student Id</t>
+  </si>
+  <si>
+    <t>Should appear the details of the student corresponding to the selected student id.</t>
+  </si>
+  <si>
+    <t>Details of the student appears.</t>
+  </si>
+  <si>
+    <t>View Queries and send reply</t>
+  </si>
+  <si>
+    <t>Select query id</t>
+  </si>
+  <si>
+    <t>Query for the selected id should appear.</t>
+  </si>
+  <si>
+    <t>Query for the selected id appears.</t>
+  </si>
+  <si>
+    <t>Click save button without entering reply</t>
+  </si>
+  <si>
+    <t>Message "Please enter reply" should appear.</t>
+  </si>
+  <si>
+    <t>Click save button after entering reply</t>
+  </si>
+  <si>
+    <t>Message "Your response have been submitted" should appear and save the response to database.</t>
+  </si>
+  <si>
+    <t>Message shown and save the response to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View documents(students) </t>
+  </si>
+  <si>
+    <t>Should load subjects corresponding to the selected category.</t>
+  </si>
+  <si>
+    <t>Subjects corresponding to the selected category appears.</t>
+  </si>
+  <si>
+    <t>Select Subject</t>
+  </si>
+  <si>
+    <t>Should appear all documents corresponding to the selected subject.</t>
+  </si>
+  <si>
+    <t>All documents appear</t>
+  </si>
+  <si>
+    <t>Click on the document</t>
+  </si>
+  <si>
+    <t>User must be able to see the document content.</t>
+  </si>
+  <si>
+    <t>Users view the document contents.</t>
+  </si>
+  <si>
+    <t>Click on download</t>
+  </si>
+  <si>
+    <t>Should download the document to the system</t>
+  </si>
+  <si>
+    <t>Document downloaded to the system.</t>
+  </si>
+  <si>
+    <t>Online Quiz</t>
+  </si>
+  <si>
+    <t>Select the Quiz category</t>
+  </si>
+  <si>
+    <t>Should redirect the students to the instructions page.</t>
+  </si>
+  <si>
+    <t>Students are redirected to the instruction page.</t>
+  </si>
+  <si>
+    <t>Instruction page</t>
+  </si>
+  <si>
+    <t>Click on the start test button</t>
+  </si>
+  <si>
+    <t>Should redirect to the online test page.</t>
+  </si>
+  <si>
+    <t>Redirected to the online test page</t>
+  </si>
+  <si>
+    <t>Online test</t>
+  </si>
+  <si>
+    <t>Should save the students's response for the question and should reload the page with next question.</t>
+  </si>
+  <si>
+    <t>Save the student's response and reload the page with next question.</t>
+  </si>
+  <si>
+    <t>Click on submit button after finishing the test.</t>
+  </si>
+  <si>
+    <t>Select any of the four options for the given question and click on next question button</t>
+  </si>
+  <si>
+    <t>Should appear a report shows correct answers and the score obtained by the student.</t>
+  </si>
+  <si>
+    <t>Report appears.</t>
+  </si>
+  <si>
+    <t>Post queries</t>
+  </si>
+  <si>
+    <t>Submit without entering the subject</t>
+  </si>
+  <si>
+    <t>Message "Please fill the subject field" should appear.</t>
+  </si>
+  <si>
+    <t>Submit without entering the query</t>
+  </si>
+  <si>
+    <t>Message "Please enter your query" should appear.</t>
+  </si>
+  <si>
+    <t>Submit after entering all details</t>
+  </si>
+  <si>
+    <t>Message "Your query has been submitted" should appear</t>
+  </si>
+  <si>
+    <t>View Reply</t>
+  </si>
+  <si>
+    <t>Select the query id</t>
+  </si>
+  <si>
+    <t>Should load the reply details corresponding to the selected query id.</t>
+  </si>
+  <si>
+    <t>Load the reply details</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Page load</t>
+  </si>
+  <si>
+    <t>Should load the user details of the user who is currently logged in.</t>
+  </si>
+  <si>
+    <t>Details of the user appears.</t>
+  </si>
+  <si>
+    <t>Click on edit button</t>
+  </si>
+  <si>
+    <t>Should redirect to edit profile page.</t>
+  </si>
+  <si>
+    <t>Redirected to edit profile page</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>Make required changes and click on the update button</t>
+  </si>
+  <si>
+    <t>Changes should be saved to the database.</t>
+  </si>
+  <si>
+    <t>Changes have been saved to the database</t>
   </si>
 </sst>
 </file>
@@ -500,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G43"/>
+  <dimension ref="A3:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,9 +1362,6 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
@@ -1063,9 +1382,6 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
       <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
@@ -1095,7 +1411,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>57</v>
@@ -1117,9 +1433,6 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
       <c r="B9" s="10" t="s">
         <v>57</v>
       </c>
@@ -1140,9 +1453,6 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
       <c r="B10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1163,9 +1473,6 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
       <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
@@ -1186,9 +1493,6 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
       <c r="B12" s="10" t="s">
         <v>57</v>
       </c>
@@ -1209,9 +1513,6 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>9</v>
-      </c>
       <c r="B13" s="10" t="s">
         <v>57</v>
       </c>
@@ -1232,9 +1533,6 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>10</v>
-      </c>
       <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
@@ -1255,17 +1553,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>11</v>
-      </c>
       <c r="B15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>36</v>
@@ -1278,57 +1573,57 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>11</v>
-      </c>
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="F17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>36</v>
@@ -1342,10 +1637,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>36</v>
@@ -1359,50 +1654,50 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>36</v>
@@ -1416,50 +1711,50 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>14</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="E26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>36</v>
@@ -1473,10 +1768,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>36</v>
@@ -1490,90 +1785,90 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>15</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="E31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="10" t="s">
+      <c r="E33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>16</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="E34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>7</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>36</v>
@@ -1587,10 +1882,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>36</v>
@@ -1604,81 +1899,737 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="F39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>8</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>9</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>11</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>12</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>13</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>14</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>15</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>16</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <v>17</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="B76" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <v>18</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="B78" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>19</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>20</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>21</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>22</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="382">
   <si>
     <t>S.No</t>
   </si>
@@ -661,6 +661,507 @@
   </si>
   <si>
     <t>Changes have been saved to the database</t>
+  </si>
+  <si>
+    <t>Click on Register button without entering the mandatory fields.</t>
+  </si>
+  <si>
+    <t>Messages like "Please enter the details" or "Mandatory fields" should appear.</t>
+  </si>
+  <si>
+    <t>Messages like "Please enter the details" or "Mandatory fields" appear.</t>
+  </si>
+  <si>
+    <t>Enter an invalid name.</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid name" should appear.</t>
+  </si>
+  <si>
+    <t>Enter an invalid Email id.</t>
+  </si>
+  <si>
+    <t>Message like "Please enter a valid email id" should appear.</t>
+  </si>
+  <si>
+    <t>Enter a invalid Mobile No.</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid mobile no" should appear.</t>
+  </si>
+  <si>
+    <t>Upload a photo which is not in the specified format or size.</t>
+  </si>
+  <si>
+    <t>Message "Please upload an image of specified size" should appear.</t>
+  </si>
+  <si>
+    <t>When the religion is selected</t>
+  </si>
+  <si>
+    <t>Corresponding to the selected religion category should be loaded in the drop down list.</t>
+  </si>
+  <si>
+    <t>Category corresponding to the selected religion is loaded in the drop down list.</t>
+  </si>
+  <si>
+    <t>When state is selected</t>
+  </si>
+  <si>
+    <t>Districts corresponding to the selected state should be loaded in the drop down list.</t>
+  </si>
+  <si>
+    <t>Districts corresponding to the selected state is loaded in the drop down list.</t>
+  </si>
+  <si>
+    <t>Enter an invalid pin code.</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid pin code(Only digits are allowed)" should appear.</t>
+  </si>
+  <si>
+    <t>When an admitted program is selected</t>
+  </si>
+  <si>
+    <t>Branches corresponding to the selected program should appear in the drop down list.</t>
+  </si>
+  <si>
+    <t>Enter an invalid mark</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid mark(Only digits and dot is allowed)" should appear.</t>
+  </si>
+  <si>
+    <t>Enter all valid details and click on Register button.</t>
+  </si>
+  <si>
+    <t>Should generate a username and password which must be send to the users mobile no. And save all details to the database and reload the page.</t>
+  </si>
+  <si>
+    <t>Generates a username and password which is sended to the user's mobile no and all datas are saved to database and the page is reloaded.</t>
+  </si>
+  <si>
+    <t>Click on Clear button</t>
+  </si>
+  <si>
+    <t>Should clear all the fields</t>
+  </si>
+  <si>
+    <t>Clear all the fields</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Enter an invalid email id</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid email id" should appear.</t>
+  </si>
+  <si>
+    <t>Message appears.</t>
+  </si>
+  <si>
+    <t>Enter an email id which is not already registered.</t>
+  </si>
+  <si>
+    <t>Message "This email id has not been registered.Please enter correct email id" should appear</t>
+  </si>
+  <si>
+    <t>Enter valid email id and click on submit button</t>
+  </si>
+  <si>
+    <t>Message "Please check your email" should appear and navigate to the login page.</t>
+  </si>
+  <si>
+    <t>Message appears and navigated to the login page.</t>
+  </si>
+  <si>
+    <t>Enter wrong password</t>
+  </si>
+  <si>
+    <t>Enter an invalid new password</t>
+  </si>
+  <si>
+    <t>Enter password in the confirm password field which is not same as the password in the field new password.</t>
+  </si>
+  <si>
+    <t>Message "Incorrect Password!Please enter correct password" should appear.</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid password. Password must contain minimum 8 characters,atleast one uppercase character,one digit and any of the special character(@,_,/,#) should appear.</t>
+  </si>
+  <si>
+    <t>Message "Password doesn't match..Please enter correct password.." should appear.</t>
+  </si>
+  <si>
+    <t>Message "Your password has been successfully changed" and navigate to login page.</t>
+  </si>
+  <si>
+    <t>Message shown and navigated to login page</t>
+  </si>
+  <si>
+    <t>Update quiz questions</t>
+  </si>
+  <si>
+    <t>When correct answer is entered</t>
+  </si>
+  <si>
+    <t>Should check whether the correct answer is there in the options. If it is not message "Please enter correct answer" should appear</t>
+  </si>
+  <si>
+    <t>Message "Question added successfully" should appear</t>
+  </si>
+  <si>
+    <t>When category is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When category is selected </t>
+  </si>
+  <si>
+    <t>Subjects corresponding to the selected category has been loaded</t>
+  </si>
+  <si>
+    <t>When subject is selected</t>
+  </si>
+  <si>
+    <t>Quiz sets corresponding to the selected subject should be shown.</t>
+  </si>
+  <si>
+    <t>Quiz set corresponding to the selected subject is shown</t>
+  </si>
+  <si>
+    <t>When a quiz set is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions and the options should be loaded </t>
+  </si>
+  <si>
+    <t>Questions and options are loaded</t>
+  </si>
+  <si>
+    <t>The selected question should be removed from the database and should appear message "Question has been removed"</t>
+  </si>
+  <si>
+    <t>Selected question is removed from the database and message shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a question is selected and click on the Delete button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the page is loaded </t>
+  </si>
+  <si>
+    <t>Question ID should automatically generated</t>
+  </si>
+  <si>
+    <t>Question ID generated</t>
+  </si>
+  <si>
+    <t>When the correct answer is entered</t>
+  </si>
+  <si>
+    <t>It should be checked with all four options for a match.If a match is not found message "Please enter an answer in the options" should appear</t>
+  </si>
+  <si>
+    <t>Message appears when no match is found</t>
+  </si>
+  <si>
+    <t>Subjects loaded</t>
+  </si>
+  <si>
+    <t>When all details are entered</t>
+  </si>
+  <si>
+    <t>Should save to the database and message "Question added successfully" should appear</t>
+  </si>
+  <si>
+    <t>Question saved to database and message appears</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>When user id is selected</t>
+  </si>
+  <si>
+    <t>The details of the user with selected user id should appear</t>
+  </si>
+  <si>
+    <t>Details of the selected user appears</t>
+  </si>
+  <si>
+    <t>When clicked  on Delete button</t>
+  </si>
+  <si>
+    <t>Should remove the details of the selected user from the database and message "User details removed "should appear</t>
+  </si>
+  <si>
+    <t>User details are removed from the database and message appears</t>
+  </si>
+  <si>
+    <t>Should load document ID's of documents belonging to the selected category</t>
+  </si>
+  <si>
+    <t>Document ID's of documents belonging to the selected category is loaded</t>
+  </si>
+  <si>
+    <t>When Document ID is selected</t>
+  </si>
+  <si>
+    <t>Should load the details of the selected document</t>
+  </si>
+  <si>
+    <t>Details of the selected document is loaded</t>
+  </si>
+  <si>
+    <t>When Delete button is clicked</t>
+  </si>
+  <si>
+    <t>Should remove the details of the selected document from the database</t>
+  </si>
+  <si>
+    <t>Details of the selected document is removed from database</t>
+  </si>
+  <si>
+    <t>When the document is verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status should be updated to Verified </t>
+  </si>
+  <si>
+    <t>Status is updated to Verified</t>
+  </si>
+  <si>
+    <t>View student quiz report</t>
+  </si>
+  <si>
+    <t>When daily report is selected</t>
+  </si>
+  <si>
+    <t>Should load the quiz report based on the daily report</t>
+  </si>
+  <si>
+    <t>Quiz report based on the daily report is loaded</t>
+  </si>
+  <si>
+    <t>When Department wise is selected</t>
+  </si>
+  <si>
+    <t>Should load the quiz report based on the selected department</t>
+  </si>
+  <si>
+    <t>Quiz report based on the selected department is loaded</t>
+  </si>
+  <si>
+    <t>View student details(Faculty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When class is selected </t>
+  </si>
+  <si>
+    <t>Should load the student_id of students of the selected class</t>
+  </si>
+  <si>
+    <t>Student_Id of students of the selected class are loaded</t>
+  </si>
+  <si>
+    <t>When student id is selected</t>
+  </si>
+  <si>
+    <t>Should load the details of the student of the selected student id</t>
+  </si>
+  <si>
+    <t>Details of the student corresponding to the selected student id is loaded</t>
+  </si>
+  <si>
+    <t>View queries and send reply</t>
+  </si>
+  <si>
+    <t>When select query id</t>
+  </si>
+  <si>
+    <t>Should load the query corresponding to the query id</t>
+  </si>
+  <si>
+    <t>Query corresponding to the selected query id is loaded.</t>
+  </si>
+  <si>
+    <t>Click save without entering reply</t>
+  </si>
+  <si>
+    <t>Message "Please enter the reply" should appear</t>
+  </si>
+  <si>
+    <t>Click Save button after entering the reply</t>
+  </si>
+  <si>
+    <t>Message "Your response has been successfully saved" should appear.</t>
+  </si>
+  <si>
+    <t>Upload documents</t>
+  </si>
+  <si>
+    <t>Click on Submit button without entering the topic</t>
+  </si>
+  <si>
+    <t>Message "Please enter the topic" should appear.</t>
+  </si>
+  <si>
+    <t>Click on Submit button without entering the subject.</t>
+  </si>
+  <si>
+    <t>Message "Please enter the subject" should appear.</t>
+  </si>
+  <si>
+    <t>Click on Submit button without uploading the document.</t>
+  </si>
+  <si>
+    <t>Message "Please upload the document" should appear.</t>
+  </si>
+  <si>
+    <t>Click on Submit button after entering all valid details</t>
+  </si>
+  <si>
+    <t>Message "Document has been uploaded successfully" should appear</t>
+  </si>
+  <si>
+    <t>When the My Profile page is loaded</t>
+  </si>
+  <si>
+    <t>Should load the user details of the current user</t>
+  </si>
+  <si>
+    <t>User details of the current user is loaded.</t>
+  </si>
+  <si>
+    <t>When a quiz category is selected</t>
+  </si>
+  <si>
+    <t>Should navigate to the instruction page.</t>
+  </si>
+  <si>
+    <t>User is navigated to the Instruction page.</t>
+  </si>
+  <si>
+    <t>When the Start Test button is clicked</t>
+  </si>
+  <si>
+    <t>Should navigate the user to the Online test page</t>
+  </si>
+  <si>
+    <t>Navigate the user to the Online test page</t>
+  </si>
+  <si>
+    <t>Select the option and then click on the Next Question button</t>
+  </si>
+  <si>
+    <t>Should reload the page with new question and should save the response in the database.</t>
+  </si>
+  <si>
+    <t>The page is reloaded and the response to the question is loaded in the database</t>
+  </si>
+  <si>
+    <t>When click on the Submit button</t>
+  </si>
+  <si>
+    <t>Should generate the quiz report</t>
+  </si>
+  <si>
+    <t>Generate the quiz report</t>
+  </si>
+  <si>
+    <t>When the page is loaded</t>
+  </si>
+  <si>
+    <t>Query Id's should be loaded in the drop down list</t>
+  </si>
+  <si>
+    <t>Query Id's loaded in the drop down list</t>
+  </si>
+  <si>
+    <t>When the Query Id is selected</t>
+  </si>
+  <si>
+    <t>Should load the query and reply corresponding to the selected query id</t>
+  </si>
+  <si>
+    <t>Query and reply corresponding to the selected query id is loaded</t>
+  </si>
+  <si>
+    <t>Post Query</t>
+  </si>
+  <si>
+    <t>Click on Submit button without entering the query</t>
+  </si>
+  <si>
+    <t>Message "Please enter the Query" should appear.</t>
+  </si>
+  <si>
+    <t>Message "Your query has been added successfully" should appear</t>
+  </si>
+  <si>
+    <t>View Documents</t>
+  </si>
+  <si>
+    <t>When the category is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should load the subjects corresponding to the selected category </t>
+  </si>
+  <si>
+    <t>When the subject is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should load documents corresponding to the selected subject </t>
+  </si>
+  <si>
+    <t>Documents correponding to the selected subject has been loaded.</t>
+  </si>
+  <si>
+    <t>When a document is selected</t>
+  </si>
+  <si>
+    <t>Should open the document</t>
+  </si>
+  <si>
+    <t>Open the document</t>
+  </si>
+  <si>
+    <t>When a document is selected and click on download button</t>
+  </si>
+  <si>
+    <t>Download the documents to the system</t>
+  </si>
+  <si>
+    <t>Instruction Page</t>
+  </si>
+  <si>
+    <t>Online Test</t>
+  </si>
+  <si>
+    <t>Make required changes and click on Submit button</t>
+  </si>
+  <si>
+    <t>Should check all the validations and save the changes to the database.</t>
+  </si>
+  <si>
+    <t>All validations are checked and changes are saved to the database.</t>
+  </si>
+  <si>
+    <t>Click on Submit button without entering the category</t>
+  </si>
+  <si>
+    <t>Message "Please enter the category" should appear</t>
+  </si>
+  <si>
+    <t>Click on Submit button without entering the subcategory</t>
+  </si>
+  <si>
+    <t>Message "Please enter the Subcategory" should appear</t>
+  </si>
+  <si>
+    <t>Message "Details have been added successfully " should appear</t>
   </si>
 </sst>
 </file>
@@ -723,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,32 +1236,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,1337 +1794,1337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="45" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="F13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>4</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>5</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>6</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="10" t="s">
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="F34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>7</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="F36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
+      <c r="F37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="10" t="s">
+      <c r="F38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="F39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>8</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
+      <c r="F41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="F42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>9</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="10" t="s">
+      <c r="F44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="F45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
+      <c r="F46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="F47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>10</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="10" t="s">
+      <c r="F49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="10" t="s">
+      <c r="F50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="F51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>11</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
+      <c r="F53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C54" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="10" t="s">
+      <c r="F54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
+      <c r="F55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C56" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="F56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>12</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="F58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="10" t="s">
+      <c r="F59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>13</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="F60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>13</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="10" t="s">
+      <c r="F62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="F63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>14</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="10" t="s">
+      <c r="F65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="10" t="s">
+      <c r="F66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="F67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>15</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="10" t="s">
+      <c r="F69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" s="10" t="s">
+      <c r="F70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="10" t="s">
+      <c r="F71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="F72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>16</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="F74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
         <v>17</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="F76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
         <v>18</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="10" t="s">
+      <c r="F78" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C79" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="F79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>19</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="10" t="s">
+      <c r="F81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C82" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="10" t="s">
+      <c r="F82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C83" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="F83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
         <v>20</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="F85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
         <v>21</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="10" t="s">
+      <c r="F87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="F88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
         <v>22</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F90" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" s="10" t="s">
+      <c r="F90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2641,143 +3136,1343 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G13"/>
+  <dimension ref="A3:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="21.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>6</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>7</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>9</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>10</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>11</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>12</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>13</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>14</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>15</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B73" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B75" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C76" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B78" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B81" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C82" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C83" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B85" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="B90" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C91" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>